--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="257">
   <si>
     <t>Matemáticas</t>
   </si>
@@ -784,13 +784,16 @@
   </si>
   <si>
     <t>Teoría del origen australiano</t>
+  </si>
+  <si>
+    <t>Secuencia de imágenes con aspectos generales de los primeros pobladores de Mesoamérica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +863,34 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -965,7 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1018,9 +1049,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,9 +1063,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1050,16 +1075,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,10 +1099,34 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3345,29 +3397,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="112.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="78.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="121.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.140625" customWidth="1"/>
@@ -3375,111 +3427,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="40"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="36" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="41" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="8">
@@ -3491,7 +3543,7 @@
       <c r="J3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -3507,7 +3559,7 @@
       <c r="P3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="32">
         <v>6</v>
       </c>
       <c r="R3" s="4" t="s">
@@ -3527,30 +3579,30 @@
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="33"/>
+      <c r="K4" s="31"/>
       <c r="L4" s="8"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="41"/>
+      <c r="Q4" s="32"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
@@ -3560,30 +3612,30 @@
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="33"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
@@ -3593,30 +3645,30 @@
       <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="33"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="10"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
@@ -3626,30 +3678,30 @@
       <c r="A7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="42" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="8">
         <v>2</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -3665,7 +3717,7 @@
       <c r="P7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="32">
         <v>6</v>
       </c>
       <c r="R7" s="4" t="s">
@@ -3685,20 +3737,20 @@
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="42" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="8">
@@ -3710,7 +3762,7 @@
       <c r="J8" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -3726,7 +3778,7 @@
       <c r="P8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="32">
         <v>6</v>
       </c>
       <c r="R8" s="4" t="s">
@@ -3746,18 +3798,18 @@
       <c r="A9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>113</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="42" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="8">
@@ -3766,10 +3818,10 @@
       <c r="I9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -3785,7 +3837,7 @@
       <c r="P9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="32">
         <v>6</v>
       </c>
       <c r="R9" s="4" t="s">
@@ -3805,18 +3857,18 @@
       <c r="A10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="42" t="s">
         <v>119</v>
       </c>
       <c r="H10" s="8">
@@ -3828,7 +3880,7 @@
       <c r="J10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -3844,7 +3896,7 @@
       <c r="P10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="32">
         <v>6</v>
       </c>
       <c r="R10" s="4" t="s">
@@ -3860,24 +3912,24 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>107</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="42" t="s">
         <v>124</v>
       </c>
       <c r="H11" s="8">
@@ -3889,7 +3941,7 @@
       <c r="J11" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -3905,7 +3957,7 @@
       <c r="P11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="32">
         <v>6</v>
       </c>
       <c r="R11" s="4" t="s">
@@ -3925,18 +3977,18 @@
       <c r="A12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="42" t="s">
         <v>129</v>
       </c>
       <c r="H12" s="8">
@@ -3948,7 +4000,7 @@
       <c r="J12" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="8" t="s">
@@ -3964,7 +4016,7 @@
       <c r="P12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="32">
         <v>6</v>
       </c>
       <c r="R12" s="4" t="s">
@@ -3984,18 +4036,18 @@
       <c r="A13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="42" t="s">
         <v>136</v>
       </c>
       <c r="H13" s="8">
@@ -4007,7 +4059,7 @@
       <c r="J13" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -4023,7 +4075,7 @@
       <c r="P13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="32">
         <v>6</v>
       </c>
       <c r="R13" s="4" t="s">
@@ -4043,20 +4095,20 @@
       <c r="A14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="42" t="s">
         <v>141</v>
       </c>
       <c r="H14" s="8">
@@ -4068,7 +4120,7 @@
       <c r="J14" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="33" t="s">
+      <c r="K14" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -4084,7 +4136,7 @@
       <c r="P14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="32">
         <v>6</v>
       </c>
       <c r="R14" s="4" t="s">
@@ -4104,18 +4156,18 @@
       <c r="A15" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="8">
@@ -4124,8 +4176,10 @@
       <c r="I15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="8"/>
@@ -4139,7 +4193,7 @@
       <c r="P15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="32">
         <v>6</v>
       </c>
       <c r="R15" s="4" t="s">
@@ -4159,13 +4213,13 @@
       <c r="A16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E16" s="17" t="s">
@@ -4174,7 +4228,7 @@
       <c r="F16" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="43" t="s">
         <v>152</v>
       </c>
       <c r="H16" s="8">
@@ -4184,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="33" t="s">
+      <c r="K16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -4198,7 +4252,7 @@
       <c r="P16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="41" t="s">
+      <c r="Q16" s="32" t="s">
         <v>155</v>
       </c>
       <c r="R16" s="14"/>
@@ -4210,13 +4264,13 @@
       <c r="A17" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -4225,17 +4279,17 @@
       <c r="F17" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="33"/>
+      <c r="K17" s="31"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="41"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
@@ -4245,13 +4299,13 @@
       <c r="A18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -4260,17 +4314,17 @@
       <c r="F18" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="33"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="8"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
@@ -4280,13 +4334,13 @@
       <c r="A19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -4295,17 +4349,17 @@
       <c r="F19" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="44"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="33"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="9"/>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
@@ -4315,32 +4369,32 @@
       <c r="A20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="33"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="8"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
@@ -4350,22 +4404,22 @@
       <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="45" t="s">
         <v>161</v>
       </c>
       <c r="H21" s="8">
@@ -4377,7 +4431,7 @@
       <c r="J21" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="8" t="s">
@@ -4393,7 +4447,7 @@
       <c r="P21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="32">
         <v>6</v>
       </c>
       <c r="R21" s="4" t="s">
@@ -4413,13 +4467,13 @@
       <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -4428,7 +4482,7 @@
       <c r="F22" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="42" t="s">
         <v>167</v>
       </c>
       <c r="H22" s="8">
@@ -4440,7 +4494,7 @@
       <c r="J22" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -4454,7 +4508,7 @@
       <c r="P22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="42" t="s">
+      <c r="Q22" s="33" t="s">
         <v>169</v>
       </c>
       <c r="R22" s="14"/>
@@ -4466,13 +4520,13 @@
       <c r="A23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -4481,7 +4535,7 @@
       <c r="F23" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="42" t="s">
         <v>170</v>
       </c>
       <c r="H23" s="8">
@@ -4493,7 +4547,7 @@
       <c r="J23" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="K23" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="8" t="s">
@@ -4509,7 +4563,7 @@
       <c r="P23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="32">
         <v>6</v>
       </c>
       <c r="R23" s="4" t="s">
@@ -4529,13 +4583,13 @@
       <c r="A24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -4544,17 +4598,17 @@
       <c r="F24" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="33"/>
+      <c r="K24" s="31"/>
       <c r="L24" s="8"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="10"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
@@ -4564,13 +4618,13 @@
       <c r="A25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -4579,17 +4633,17 @@
       <c r="F25" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="33"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="8"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="4"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="41"/>
+      <c r="Q25" s="32"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -4599,32 +4653,32 @@
       <c r="A26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="47"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="33"/>
+      <c r="K26" s="31"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="21"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="41"/>
+      <c r="Q26" s="32"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -4634,22 +4688,22 @@
       <c r="A27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="29" t="s">
         <v>145</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="45" t="s">
         <v>175</v>
       </c>
       <c r="H27" s="8">
@@ -4661,7 +4715,7 @@
       <c r="J27" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="8" t="s">
@@ -4677,7 +4731,7 @@
       <c r="P27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="41">
+      <c r="Q27" s="32">
         <v>6</v>
       </c>
       <c r="R27" s="4" t="s">
@@ -4697,20 +4751,20 @@
       <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="42" t="s">
         <v>180</v>
       </c>
       <c r="H28" s="8">
@@ -4722,7 +4776,7 @@
       <c r="J28" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L28" s="8" t="s">
@@ -4738,7 +4792,7 @@
       <c r="P28" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="32">
         <v>6</v>
       </c>
       <c r="R28" s="4" t="s">
@@ -4758,20 +4812,20 @@
       <c r="A29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="24" t="s">
+      <c r="F29" s="30"/>
+      <c r="G29" s="45" t="s">
         <v>184</v>
       </c>
       <c r="H29" s="8">
@@ -4780,10 +4834,10 @@
       <c r="I29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="8" t="s">
@@ -4799,7 +4853,7 @@
       <c r="P29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="32">
         <v>6</v>
       </c>
       <c r="R29" s="4" t="s">
@@ -4819,20 +4873,20 @@
       <c r="A30" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>190</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="46" t="s">
         <v>190</v>
       </c>
       <c r="H30" s="8">
@@ -4844,7 +4898,7 @@
       <c r="J30" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="8" t="s">
@@ -4858,7 +4912,7 @@
       <c r="P30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q30" s="42" t="s">
+      <c r="Q30" s="33" t="s">
         <v>193</v>
       </c>
       <c r="R30" s="14"/>
@@ -4870,13 +4924,13 @@
       <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -4885,17 +4939,17 @@
       <c r="F31" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="33"/>
+      <c r="K31" s="31"/>
       <c r="L31" s="8"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="10"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="41"/>
+      <c r="Q31" s="32"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -4905,13 +4959,13 @@
       <c r="A32" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E32" s="17" t="s">
@@ -4920,17 +4974,17 @@
       <c r="F32" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
@@ -4940,13 +4994,13 @@
       <c r="A33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -4955,17 +5009,17 @@
       <c r="F33" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="10"/>
-      <c r="K33" s="33"/>
+      <c r="K33" s="31"/>
       <c r="L33" s="8"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="10"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="41"/>
+      <c r="Q33" s="32"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
@@ -4975,13 +5029,13 @@
       <c r="A34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E34" s="17" t="s">
@@ -4990,7 +5044,7 @@
       <c r="F34" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="45" t="s">
         <v>194</v>
       </c>
       <c r="H34" s="8">
@@ -4999,10 +5053,10 @@
       <c r="I34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="49" t="s">
         <v>3</v>
       </c>
       <c r="L34" s="8" t="s">
@@ -5018,7 +5072,7 @@
       <c r="P34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="32">
         <v>6</v>
       </c>
       <c r="R34" s="4" t="s">
@@ -5038,22 +5092,22 @@
       <c r="A35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="42" t="s">
         <v>197</v>
       </c>
       <c r="H35" s="8">
@@ -5065,7 +5119,7 @@
       <c r="J35" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="8" t="s">
@@ -5081,7 +5135,7 @@
       <c r="P35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="32">
         <v>6</v>
       </c>
       <c r="R35" s="4" t="s">
@@ -5101,28 +5155,28 @@
       <c r="A36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="6"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8" t="s">
         <v>3</v>
       </c>
       <c r="J36" s="10"/>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="8" t="s">
@@ -5136,7 +5190,7 @@
       <c r="P36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q36" s="42" t="s">
+      <c r="Q36" s="33" t="s">
         <v>202</v>
       </c>
       <c r="R36" s="14"/>
@@ -5148,20 +5202,20 @@
       <c r="A37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="42" t="s">
         <v>203</v>
       </c>
       <c r="H37" s="8">
@@ -5173,7 +5227,7 @@
       <c r="J37" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="K37" s="33" t="s">
+      <c r="K37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="8" t="s">
@@ -5189,7 +5243,7 @@
       <c r="P37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q37" s="41">
+      <c r="Q37" s="32">
         <v>6</v>
       </c>
       <c r="R37" s="4" t="s">
@@ -5209,10 +5263,10 @@
       <c r="A38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -5220,7 +5274,7 @@
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="42" t="s">
         <v>209</v>
       </c>
       <c r="H38" s="8">
@@ -5230,7 +5284,7 @@
         <v>8</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="8" t="s">
@@ -5244,7 +5298,7 @@
       <c r="P38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q38" s="41">
+      <c r="Q38" s="32">
         <v>6</v>
       </c>
       <c r="R38" s="4" t="s">
@@ -5264,10 +5318,10 @@
       <c r="A39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -5275,7 +5329,7 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="42" t="s">
         <v>212</v>
       </c>
       <c r="H39" s="8">
@@ -5285,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="33" t="s">
+      <c r="K39" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L39" s="8" t="s">
@@ -5299,7 +5353,7 @@
       <c r="P39" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q39" s="41">
+      <c r="Q39" s="32">
         <v>6</v>
       </c>
       <c r="R39" s="4" t="s">
@@ -5319,10 +5373,10 @@
       <c r="A40" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -5330,7 +5384,7 @@
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="42" t="s">
         <v>216</v>
       </c>
       <c r="H40" s="8">
@@ -5340,7 +5394,7 @@
         <v>8</v>
       </c>
       <c r="J40" s="4"/>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -5352,7 +5406,7 @@
       <c r="P40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q40" s="41"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="11"/>
@@ -5362,10 +5416,10 @@
       <c r="A41" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -5373,7 +5427,7 @@
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="42" t="s">
         <v>218</v>
       </c>
       <c r="H41" s="8">
@@ -5383,7 +5437,7 @@
         <v>8</v>
       </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="33" t="s">
+      <c r="K41" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="8" t="s">
@@ -5399,7 +5453,7 @@
       <c r="P41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="41">
+      <c r="Q41" s="32">
         <v>6</v>
       </c>
       <c r="R41" s="4" t="s">
@@ -5419,16 +5473,16 @@
       <c r="A42" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="28" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="42" t="s">
         <v>222</v>
       </c>
       <c r="H42" s="8">
@@ -5438,7 +5492,7 @@
         <v>8</v>
       </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="33" t="s">
+      <c r="K42" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L42" s="8"/>
@@ -5452,7 +5506,7 @@
       <c r="P42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="41">
+      <c r="Q42" s="32">
         <v>6</v>
       </c>
       <c r="R42" s="4" t="s">
@@ -5475,7 +5529,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="42"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="4"/>
@@ -5485,7 +5539,7 @@
       <c r="N43" s="8"/>
       <c r="O43" s="10"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="41"/>
+      <c r="Q43" s="32"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
@@ -5498,7 +5552,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="44" t="s">
         <v>226</v>
       </c>
       <c r="H44" s="8"/>
@@ -5510,34 +5564,34 @@
       <c r="N44" s="8"/>
       <c r="O44" s="10"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="41"/>
+      <c r="Q44" s="32"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -5726,6 +5780,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5740,12 +5800,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="258">
   <si>
     <t>Matemáticas</t>
   </si>
@@ -393,9 +393,6 @@
     <t>Refuerza tu aprendizaje: Los periodos históricos de América precolombina</t>
   </si>
   <si>
-    <t>Actividad sobre Los periodos histíricos de América precolombina</t>
-  </si>
-  <si>
     <t>Plantear diez preguntas incluyendo de argumentación. (Dos para BC)</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>La vida diaria de la sociedad azteca</t>
   </si>
   <si>
-    <t>Profundiza: Interactivo sobre aspectos cotidianos de la civilización azteca</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
@@ -787,13 +781,22 @@
   </si>
   <si>
     <t>Secuencia de imágenes con aspectos generales de los primeros pobladores de Mesoamérica</t>
+  </si>
+  <si>
+    <t>Actividad sobre Los periodos históricos de América precolombina</t>
+  </si>
+  <si>
+    <t>Video que permite conocer los orígenes y estructura social de la civilización maya</t>
+  </si>
+  <si>
+    <t>Interactivo sobre aspectos cotidianos de la civilización azteca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,6 +894,21 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -996,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1081,27 +1099,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1128,6 +1125,42 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3397,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,94 +3460,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="48" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3531,7 +3564,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="30"/>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="34" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="8">
@@ -3589,10 +3622,10 @@
         <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F4" s="30"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="13"/>
@@ -3622,10 +3655,10 @@
         <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F5" s="30"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
@@ -3655,10 +3688,10 @@
         <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F6" s="30"/>
-      <c r="G6" s="42"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
@@ -3691,7 +3724,7 @@
         <v>97</v>
       </c>
       <c r="F7" s="30"/>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="35" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="8">
@@ -3750,7 +3783,7 @@
         <v>107</v>
       </c>
       <c r="F8" s="30"/>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="35" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="8">
@@ -3809,7 +3842,7 @@
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>114</v>
       </c>
       <c r="H9" s="8">
@@ -3868,7 +3901,7 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="35" t="s">
         <v>119</v>
       </c>
       <c r="H10" s="8">
@@ -3912,7 +3945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
@@ -3929,7 +3962,7 @@
         <v>107</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="35" t="s">
         <v>124</v>
       </c>
       <c r="H11" s="8">
@@ -3939,7 +3972,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>8</v>
@@ -3952,7 +3985,7 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>3</v>
@@ -3967,7 +4000,7 @@
         <v>104</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>106</v>
@@ -3984,12 +4017,12 @@
         <v>87</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="42" t="s">
-        <v>129</v>
+      <c r="G12" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="H12" s="8">
         <v>7</v>
@@ -3998,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" s="31" t="s">
         <v>8</v>
@@ -4008,10 +4041,10 @@
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>3</v>
@@ -4023,13 +4056,13 @@
         <v>103</v>
       </c>
       <c r="S12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="63" x14ac:dyDescent="0.25">
@@ -4043,12 +4076,12 @@
         <v>87</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="42" t="s">
-        <v>136</v>
+      <c r="G13" s="53" t="s">
+        <v>135</v>
       </c>
       <c r="H13" s="8">
         <v>8</v>
@@ -4057,7 +4090,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K13" s="31" t="s">
         <v>8</v>
@@ -4066,11 +4099,11 @@
         <v>100</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>3</v>
@@ -4085,7 +4118,7 @@
         <v>104</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>106</v>
@@ -4102,14 +4135,14 @@
         <v>87</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>107</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="42" t="s">
-        <v>141</v>
+      <c r="G14" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="H14" s="8">
         <v>9</v>
@@ -4118,7 +4151,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>8</v>
@@ -4131,7 +4164,7 @@
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>3</v>
@@ -4146,7 +4179,7 @@
         <v>104</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>106</v>
@@ -4163,12 +4196,12 @@
         <v>87</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="16"/>
-      <c r="G15" s="42" t="s">
-        <v>146</v>
+      <c r="G15" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="H15" s="8">
         <v>10</v>
@@ -4177,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>8</v>
@@ -4185,10 +4218,10 @@
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>3</v>
@@ -4203,7 +4236,7 @@
         <v>94</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>96</v>
@@ -4220,16 +4253,16 @@
         <v>87</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="36" t="s">
         <v>151</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>152</v>
       </c>
       <c r="H16" s="8">
         <v>11</v>
@@ -4237,23 +4270,25 @@
       <c r="I16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="K16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>153</v>
+      <c r="L16" s="43" t="s">
+        <v>152</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -4271,15 +4306,15 @@
         <v>87</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" s="42"/>
+        <v>155</v>
+      </c>
+      <c r="G17" s="35"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -4306,15 +4341,15 @@
         <v>87</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G18" s="42"/>
+        <v>156</v>
+      </c>
+      <c r="G18" s="35"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="10"/>
@@ -4341,15 +4376,15 @@
         <v>87</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="44"/>
+        <v>157</v>
+      </c>
+      <c r="G19" s="37"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
       <c r="J19" s="15"/>
@@ -4376,15 +4411,15 @@
         <v>87</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="42"/>
+        <v>158</v>
+      </c>
+      <c r="G20" s="35"/>
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
       <c r="J20" s="22"/>
@@ -4411,16 +4446,16 @@
         <v>87</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="38" t="s">
         <v>160</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>161</v>
       </c>
       <c r="H21" s="8">
         <v>12</v>
@@ -4429,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>8</v>
@@ -4438,11 +4473,11 @@
         <v>100</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>3</v>
@@ -4457,7 +4492,7 @@
         <v>104</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>106</v>
@@ -4474,16 +4509,16 @@
         <v>87</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>166</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>167</v>
       </c>
       <c r="H22" s="8">
         <v>13</v>
@@ -4492,24 +4527,24 @@
         <v>8</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>153</v>
+      <c r="L22" s="43" t="s">
+        <v>152</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="10" t="s">
-        <v>154</v>
+      <c r="O22" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -4527,16 +4562,16 @@
         <v>87</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>170</v>
+        <v>155</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>169</v>
       </c>
       <c r="H23" s="8">
         <v>14</v>
@@ -4545,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>8</v>
@@ -4555,10 +4590,10 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>3</v>
@@ -4573,7 +4608,7 @@
         <v>94</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>96</v>
@@ -4590,15 +4625,15 @@
         <v>87</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="42"/>
+        <v>156</v>
+      </c>
+      <c r="G24" s="35"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="15"/>
@@ -4625,15 +4660,15 @@
         <v>87</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="46"/>
+        <v>157</v>
+      </c>
+      <c r="G25" s="39"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="4"/>
@@ -4660,15 +4695,15 @@
         <v>87</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="47"/>
+        <v>158</v>
+      </c>
+      <c r="G26" s="40"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="15"/>
@@ -4695,16 +4730,16 @@
         <v>87</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>175</v>
+        <v>159</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="H27" s="8">
         <v>15</v>
@@ -4713,7 +4748,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>8</v>
@@ -4722,11 +4757,11 @@
         <v>100</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>8</v>
@@ -4741,7 +4776,7 @@
         <v>104</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>106</v>
@@ -4758,14 +4793,14 @@
         <v>87</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="42" t="s">
-        <v>180</v>
+      <c r="G28" s="35" t="s">
+        <v>178</v>
       </c>
       <c r="H28" s="8">
         <v>16</v>
@@ -4774,7 +4809,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>8</v>
@@ -4787,7 +4822,7 @@
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>3</v>
@@ -4802,7 +4837,7 @@
         <v>104</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>106</v>
@@ -4819,14 +4854,14 @@
         <v>87</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F29" s="30"/>
-      <c r="G29" s="45" t="s">
-        <v>184</v>
+      <c r="G29" s="38" t="s">
+        <v>182</v>
       </c>
       <c r="H29" s="8">
         <v>17</v>
@@ -4835,7 +4870,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>8</v>
@@ -4844,11 +4879,11 @@
         <v>100</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>3</v>
@@ -4863,7 +4898,7 @@
         <v>104</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>106</v>
@@ -4880,14 +4915,14 @@
         <v>87</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="46" t="s">
-        <v>190</v>
+      <c r="G30" s="54" t="s">
+        <v>188</v>
       </c>
       <c r="H30" s="8">
         <v>18</v>
@@ -4896,24 +4931,24 @@
         <v>3</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>153</v>
+      <c r="L30" s="43" t="s">
+        <v>152</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
-      <c r="O30" s="10" t="s">
-        <v>192</v>
+      <c r="O30" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
@@ -4931,15 +4966,15 @@
         <v>87</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="42"/>
+        <v>150</v>
+      </c>
+      <c r="G31" s="35"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="10"/>
@@ -4966,15 +5001,15 @@
         <v>87</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G32" s="48"/>
+        <v>155</v>
+      </c>
+      <c r="G32" s="41"/>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
@@ -5001,15 +5036,15 @@
         <v>87</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="42"/>
+        <v>156</v>
+      </c>
+      <c r="G33" s="35"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="10"/>
@@ -5036,16 +5071,16 @@
         <v>87</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>194</v>
+        <v>157</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="H34" s="8">
         <v>19</v>
@@ -5054,9 +5089,9 @@
         <v>8</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" s="42" t="s">
         <v>3</v>
       </c>
       <c r="L34" s="8" t="s">
@@ -5067,7 +5102,7 @@
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>3</v>
@@ -5099,16 +5134,16 @@
         <v>87</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>197</v>
+        <v>158</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="H35" s="8">
         <v>20</v>
@@ -5117,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>8</v>
@@ -5126,11 +5161,11 @@
         <v>100</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>8</v>
@@ -5145,7 +5180,7 @@
         <v>104</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>106</v>
@@ -5162,16 +5197,18 @@
         <v>87</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="8">
+        <v>21</v>
+      </c>
       <c r="I36" s="8" t="s">
         <v>3</v>
       </c>
@@ -5179,19 +5216,19 @@
       <c r="K36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>153</v>
+      <c r="L36" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="10" t="s">
-        <v>154</v>
+      <c r="O36" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
@@ -5209,36 +5246,36 @@
         <v>87</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="42" t="s">
-        <v>203</v>
+      <c r="G37" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="H37" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>110</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>3</v>
@@ -5253,7 +5290,7 @@
         <v>104</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>106</v>
@@ -5270,15 +5307,15 @@
         <v>87</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="42" t="s">
-        <v>209</v>
+      <c r="G38" s="35" t="s">
+        <v>207</v>
       </c>
       <c r="H38" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>8</v>
@@ -5288,10 +5325,10 @@
         <v>8</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="10"/>
@@ -5308,7 +5345,7 @@
         <v>104</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>106</v>
@@ -5325,15 +5362,15 @@
         <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="42" t="s">
-        <v>212</v>
+      <c r="G39" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="H39" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>3</v>
@@ -5343,11 +5380,11 @@
         <v>8</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="8" t="s">
@@ -5363,7 +5400,7 @@
         <v>94</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>96</v>
@@ -5380,15 +5417,15 @@
         <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="42" t="s">
-        <v>216</v>
+      <c r="G40" s="35" t="s">
+        <v>214</v>
       </c>
       <c r="H40" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>8</v>
@@ -5398,7 +5435,7 @@
         <v>8</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="8"/>
@@ -5423,15 +5460,15 @@
         <v>87</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="42" t="s">
-        <v>218</v>
+      <c r="G41" s="35" t="s">
+        <v>216</v>
       </c>
       <c r="H41" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>8</v>
@@ -5441,14 +5478,14 @@
         <v>8</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>3</v>
@@ -5463,7 +5500,7 @@
         <v>104</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>106</v>
@@ -5482,11 +5519,11 @@
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="42" t="s">
-        <v>222</v>
+      <c r="G42" s="35" t="s">
+        <v>220</v>
       </c>
       <c r="H42" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>8</v>
@@ -5497,11 +5534,11 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>8</v>
@@ -5516,7 +5553,7 @@
         <v>104</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>106</v>
@@ -5529,7 +5566,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="42"/>
+      <c r="G43" s="35"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="4"/>
@@ -5552,8 +5589,8 @@
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="44" t="s">
-        <v>226</v>
+      <c r="G44" s="37" t="s">
+        <v>224</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -5595,12 +5632,12 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -5610,7 +5647,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -5620,137 +5657,137 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5760,22 +5797,22 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="261">
   <si>
     <t>Matemáticas</t>
   </si>
@@ -447,9 +447,6 @@
     <t>Diez preguntas acerca de las características básicas de los puelos precolombinos de América del Norte</t>
   </si>
   <si>
-    <t>Recurso M10A-03</t>
-  </si>
-  <si>
     <t>Civilizaciones precolombinas de Mesoamérica</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>Ubicación espacio temporal</t>
   </si>
   <si>
-    <t>Video sobre el  pueblo maya</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIDEO </t>
   </si>
   <si>
@@ -561,9 +555,6 @@
     <t>Diez  preguntas sobre aspectos destacados de la civilización maya y azteca (Dos para BA)</t>
   </si>
   <si>
-    <t>Recurso M10A-04</t>
-  </si>
-  <si>
     <t>Culturas precolombinas de América del Sur</t>
   </si>
   <si>
@@ -633,9 +624,6 @@
     <t>Diez  preguntas sobre aspectos destacados de la civilización inca</t>
   </si>
   <si>
-    <t>Recurso M10A-05</t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
@@ -790,13 +778,34 @@
   </si>
   <si>
     <t>Interactivo sobre aspectos cotidianos de la civilización azteca</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Los links de videos no están bien</t>
+  </si>
+  <si>
+    <t>El video en naranja debe desaparecer</t>
+  </si>
+  <si>
+    <t>El  pueblo maya</t>
+  </si>
+  <si>
+    <t>El pueblo inca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +922,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1135,13 +1164,34 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,15 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3430,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,99 +3496,99 @@
     <col min="17" max="17" width="14.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="53" t="s">
         <v>76</v>
       </c>
       <c r="P1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3622,7 +3663,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="35"/>
@@ -3655,7 +3696,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="35"/>
@@ -3688,7 +3729,7 @@
         <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="35"/>
@@ -3783,10 +3824,10 @@
         <v>107</v>
       </c>
       <c r="F8" s="30"/>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="49">
         <v>3</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -3962,17 +4003,17 @@
         <v>107</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="49">
         <v>6</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>8</v>
@@ -3980,7 +4021,7 @@
       <c r="L11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="50" t="s">
         <v>110</v>
       </c>
       <c r="N11" s="9"/>
@@ -4080,7 +4121,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="46" t="s">
         <v>135</v>
       </c>
       <c r="H13" s="8">
@@ -4141,10 +4182,10 @@
         <v>107</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="49">
         <v>9</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -4179,7 +4220,7 @@
         <v>104</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>106</v>
@@ -4196,12 +4237,12 @@
         <v>87</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="16"/>
       <c r="G15" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="8">
         <v>10</v>
@@ -4210,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>8</v>
@@ -4218,10 +4259,10 @@
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>3</v>
@@ -4236,7 +4277,7 @@
         <v>94</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>96</v>
@@ -4253,16 +4294,16 @@
         <v>87</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>150</v>
-      </c>
       <c r="G16" s="36" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="H16" s="8">
         <v>11</v>
@@ -4271,24 +4312,24 @@
         <v>3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="32" t="s">
-        <v>154</v>
+      <c r="Q16" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -4306,13 +4347,13 @@
         <v>87</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="8"/>
@@ -4341,13 +4382,13 @@
         <v>87</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="8"/>
@@ -4376,13 +4417,13 @@
         <v>87</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="8"/>
@@ -4411,13 +4452,13 @@
         <v>87</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="9"/>
@@ -4446,16 +4487,16 @@
         <v>87</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H21" s="8">
         <v>12</v>
@@ -4464,7 +4505,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>8</v>
@@ -4473,11 +4514,11 @@
         <v>100</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>3</v>
@@ -4492,7 +4533,7 @@
         <v>104</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>106</v>
@@ -4509,16 +4550,16 @@
         <v>87</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H22" s="8">
         <v>13</v>
@@ -4527,24 +4568,24 @@
         <v>8</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -4562,16 +4603,16 @@
         <v>87</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H23" s="8">
         <v>14</v>
@@ -4580,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>8</v>
@@ -4590,10 +4631,10 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>3</v>
@@ -4608,7 +4649,7 @@
         <v>94</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>96</v>
@@ -4625,13 +4666,13 @@
         <v>87</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="8"/>
@@ -4660,13 +4701,13 @@
         <v>87</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G25" s="39"/>
       <c r="H25" s="8"/>
@@ -4695,13 +4736,13 @@
         <v>87</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="9"/>
@@ -4730,16 +4771,16 @@
         <v>87</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H27" s="8">
         <v>15</v>
@@ -4748,7 +4789,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>8</v>
@@ -4757,11 +4798,11 @@
         <v>100</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>8</v>
@@ -4776,7 +4817,7 @@
         <v>104</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>106</v>
@@ -4793,23 +4834,23 @@
         <v>87</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="49">
         <v>16</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>8</v>
@@ -4817,12 +4858,12 @@
       <c r="L28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="50" t="s">
         <v>110</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>3</v>
@@ -4837,7 +4878,7 @@
         <v>104</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>106</v>
@@ -4854,14 +4895,14 @@
         <v>87</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H29" s="8">
         <v>17</v>
@@ -4870,7 +4911,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>8</v>
@@ -4879,11 +4920,11 @@
         <v>100</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>3</v>
@@ -4898,7 +4939,7 @@
         <v>104</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>106</v>
@@ -4915,14 +4956,14 @@
         <v>87</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="54" t="s">
-        <v>188</v>
+      <c r="G30" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="H30" s="8">
         <v>18</v>
@@ -4931,24 +4972,24 @@
         <v>3</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
@@ -4966,13 +5007,13 @@
         <v>87</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="8"/>
@@ -5001,13 +5042,13 @@
         <v>87</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G32" s="41"/>
       <c r="H32" s="31"/>
@@ -5036,13 +5077,13 @@
         <v>87</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="8"/>
@@ -5071,16 +5112,16 @@
         <v>87</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H34" s="8">
         <v>19</v>
@@ -5089,7 +5130,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>3</v>
@@ -5102,7 +5143,7 @@
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>3</v>
@@ -5134,16 +5175,16 @@
         <v>87</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H35" s="8">
         <v>20</v>
@@ -5152,7 +5193,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>8</v>
@@ -5161,11 +5202,11 @@
         <v>100</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>8</v>
@@ -5180,7 +5221,7 @@
         <v>104</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>106</v>
@@ -5197,13 +5238,13 @@
         <v>87</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="8">
@@ -5217,18 +5258,18 @@
         <v>8</v>
       </c>
       <c r="L36" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="M36" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="M36" s="50"/>
       <c r="N36" s="9"/>
       <c r="O36" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
@@ -5246,36 +5287,36 @@
         <v>87</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="49">
         <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="M37" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="50" t="s">
         <v>110</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>3</v>
@@ -5290,7 +5331,7 @@
         <v>104</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>106</v>
@@ -5307,12 +5348,12 @@
         <v>87</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="16"/>
       <c r="G38" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H38" s="8">
         <v>23</v>
@@ -5325,10 +5366,10 @@
         <v>8</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="10"/>
@@ -5345,7 +5386,7 @@
         <v>104</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>106</v>
@@ -5362,12 +5403,12 @@
         <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
       <c r="G39" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H39" s="8">
         <v>24</v>
@@ -5380,11 +5421,11 @@
         <v>8</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="8" t="s">
@@ -5400,7 +5441,7 @@
         <v>94</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>96</v>
@@ -5417,12 +5458,12 @@
         <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
       <c r="G40" s="35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H40" s="8">
         <v>25</v>
@@ -5435,7 +5476,7 @@
         <v>8</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="8"/>
@@ -5460,12 +5501,12 @@
         <v>87</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
       <c r="G41" s="35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H41" s="8">
         <v>26</v>
@@ -5478,14 +5519,14 @@
         <v>8</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>3</v>
@@ -5500,7 +5541,7 @@
         <v>104</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>106</v>
@@ -5520,7 +5561,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="16"/>
       <c r="G42" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H42" s="8">
         <v>27</v>
@@ -5534,11 +5575,11 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>8</v>
@@ -5553,7 +5594,7 @@
         <v>104</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>106</v>
@@ -5590,7 +5631,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="16"/>
       <c r="G44" s="37" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -5630,14 +5671,24 @@
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
     </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -5647,7 +5698,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -5662,132 +5713,132 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5797,32 +5848,26 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5837,8 +5882,17 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="258">
   <si>
     <t>Matemáticas</t>
   </si>
@@ -447,6 +447,9 @@
     <t>Diez preguntas acerca de las características básicas de los puelos precolombinos de América del Norte</t>
   </si>
   <si>
+    <t>Recurso M10A-03</t>
+  </si>
+  <si>
     <t>Civilizaciones precolombinas de Mesoamérica</t>
   </si>
   <si>
@@ -468,6 +471,9 @@
     <t>Ubicación espacio temporal</t>
   </si>
   <si>
+    <t>Video sobre el  pueblo maya</t>
+  </si>
+  <si>
     <t xml:space="preserve">VIDEO </t>
   </si>
   <si>
@@ -555,6 +561,9 @@
     <t>Diez  preguntas sobre aspectos destacados de la civilización maya y azteca (Dos para BA)</t>
   </si>
   <si>
+    <t>Recurso M10A-04</t>
+  </si>
+  <si>
     <t>Culturas precolombinas de América del Sur</t>
   </si>
   <si>
@@ -624,6 +633,9 @@
     <t>Diez  preguntas sobre aspectos destacados de la civilización inca</t>
   </si>
   <si>
+    <t>Recurso M10A-05</t>
+  </si>
+  <si>
     <t>Competencias</t>
   </si>
   <si>
@@ -778,34 +790,13 @@
   </si>
   <si>
     <t>Interactivo sobre aspectos cotidianos de la civilización azteca</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>Los links de videos no están bien</t>
-  </si>
-  <si>
-    <t>El video en naranja debe desaparecer</t>
-  </si>
-  <si>
-    <t>El  pueblo maya</t>
-  </si>
-  <si>
-    <t>El pueblo inca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,22 +913,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,12 +930,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1164,34 +1135,13 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,6 +1152,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3471,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,99 +3455,99 @@
     <col min="17" max="17" width="14.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="53" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="48" t="s">
         <v>76</v>
       </c>
       <c r="P1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="48" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3663,7 +3622,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="35"/>
@@ -3696,7 +3655,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="35"/>
@@ -3729,7 +3688,7 @@
         <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="35"/>
@@ -3824,10 +3783,10 @@
         <v>107</v>
       </c>
       <c r="F8" s="30"/>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="8">
         <v>3</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -4003,17 +3962,17 @@
         <v>107</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="8">
         <v>6</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>8</v>
@@ -4021,7 +3980,7 @@
       <c r="L11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="9" t="s">
         <v>110</v>
       </c>
       <c r="N11" s="9"/>
@@ -4121,7 +4080,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="53" t="s">
         <v>135</v>
       </c>
       <c r="H13" s="8">
@@ -4182,10 +4141,10 @@
         <v>107</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="8">
         <v>9</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -4220,7 +4179,7 @@
         <v>104</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>106</v>
@@ -4237,12 +4196,12 @@
         <v>87</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="16"/>
       <c r="G15" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H15" s="8">
         <v>10</v>
@@ -4251,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>8</v>
@@ -4259,10 +4218,10 @@
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>3</v>
@@ -4277,7 +4236,7 @@
         <v>94</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>96</v>
@@ -4294,16 +4253,16 @@
         <v>87</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="H16" s="8">
         <v>11</v>
@@ -4312,24 +4271,24 @@
         <v>3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="51" t="s">
-        <v>152</v>
+      <c r="Q16" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -4347,13 +4306,13 @@
         <v>87</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="8"/>
@@ -4382,13 +4341,13 @@
         <v>87</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="8"/>
@@ -4417,13 +4376,13 @@
         <v>87</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="8"/>
@@ -4452,13 +4411,13 @@
         <v>87</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="9"/>
@@ -4487,16 +4446,16 @@
         <v>87</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H21" s="8">
         <v>12</v>
@@ -4505,7 +4464,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>8</v>
@@ -4514,11 +4473,11 @@
         <v>100</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>3</v>
@@ -4533,7 +4492,7 @@
         <v>104</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>106</v>
@@ -4550,16 +4509,16 @@
         <v>87</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H22" s="8">
         <v>13</v>
@@ -4568,24 +4527,24 @@
         <v>8</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -4603,16 +4562,16 @@
         <v>87</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H23" s="8">
         <v>14</v>
@@ -4621,7 +4580,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>8</v>
@@ -4631,10 +4590,10 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>3</v>
@@ -4649,7 +4608,7 @@
         <v>94</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>96</v>
@@ -4666,13 +4625,13 @@
         <v>87</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="8"/>
@@ -4701,13 +4660,13 @@
         <v>87</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G25" s="39"/>
       <c r="H25" s="8"/>
@@ -4736,13 +4695,13 @@
         <v>87</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="9"/>
@@ -4771,16 +4730,16 @@
         <v>87</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H27" s="8">
         <v>15</v>
@@ -4789,7 +4748,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>8</v>
@@ -4798,11 +4757,11 @@
         <v>100</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>8</v>
@@ -4817,7 +4776,7 @@
         <v>104</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>106</v>
@@ -4834,23 +4793,23 @@
         <v>87</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="49">
+      <c r="G28" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="8">
         <v>16</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>8</v>
@@ -4858,12 +4817,12 @@
       <c r="L28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="9" t="s">
         <v>110</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>3</v>
@@ -4878,7 +4837,7 @@
         <v>104</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>106</v>
@@ -4895,14 +4854,14 @@
         <v>87</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="38" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H29" s="8">
         <v>17</v>
@@ -4911,7 +4870,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>8</v>
@@ -4920,11 +4879,11 @@
         <v>100</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>3</v>
@@ -4939,7 +4898,7 @@
         <v>104</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>106</v>
@@ -4956,14 +4915,14 @@
         <v>87</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="47" t="s">
-        <v>260</v>
+      <c r="G30" s="54" t="s">
+        <v>188</v>
       </c>
       <c r="H30" s="8">
         <v>18</v>
@@ -4972,24 +4931,24 @@
         <v>3</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
@@ -5007,13 +4966,13 @@
         <v>87</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="8"/>
@@ -5042,13 +5001,13 @@
         <v>87</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G32" s="41"/>
       <c r="H32" s="31"/>
@@ -5077,13 +5036,13 @@
         <v>87</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="8"/>
@@ -5112,16 +5071,16 @@
         <v>87</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H34" s="8">
         <v>19</v>
@@ -5130,7 +5089,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>3</v>
@@ -5143,7 +5102,7 @@
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>3</v>
@@ -5175,16 +5134,16 @@
         <v>87</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H35" s="8">
         <v>20</v>
@@ -5193,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>8</v>
@@ -5202,11 +5161,11 @@
         <v>100</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>8</v>
@@ -5221,7 +5180,7 @@
         <v>104</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>106</v>
@@ -5238,13 +5197,13 @@
         <v>87</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="8">
@@ -5258,18 +5217,18 @@
         <v>8</v>
       </c>
       <c r="L36" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="M36" s="50"/>
+        <v>152</v>
+      </c>
+      <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
@@ -5287,36 +5246,36 @@
         <v>87</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="49">
+      <c r="G37" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H37" s="8">
         <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M37" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="M37" s="9" t="s">
         <v>110</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>3</v>
@@ -5331,7 +5290,7 @@
         <v>104</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>106</v>
@@ -5348,12 +5307,12 @@
         <v>87</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="16"/>
       <c r="G38" s="35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H38" s="8">
         <v>23</v>
@@ -5366,10 +5325,10 @@
         <v>8</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="10"/>
@@ -5386,7 +5345,7 @@
         <v>104</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>106</v>
@@ -5403,12 +5362,12 @@
         <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
       <c r="G39" s="35" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H39" s="8">
         <v>24</v>
@@ -5421,11 +5380,11 @@
         <v>8</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="8" t="s">
@@ -5441,7 +5400,7 @@
         <v>94</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>96</v>
@@ -5458,12 +5417,12 @@
         <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
       <c r="G40" s="35" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H40" s="8">
         <v>25</v>
@@ -5476,7 +5435,7 @@
         <v>8</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="8"/>
@@ -5501,12 +5460,12 @@
         <v>87</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
       <c r="G41" s="35" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H41" s="8">
         <v>26</v>
@@ -5519,14 +5478,14 @@
         <v>8</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="10" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>3</v>
@@ -5541,7 +5500,7 @@
         <v>104</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>106</v>
@@ -5561,7 +5520,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="16"/>
       <c r="G42" s="35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H42" s="8">
         <v>27</v>
@@ -5575,11 +5534,11 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="10" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>8</v>
@@ -5594,7 +5553,7 @@
         <v>104</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>106</v>
@@ -5631,7 +5590,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="16"/>
       <c r="G44" s="37" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -5671,24 +5630,14 @@
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O46" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="O47" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -5698,7 +5647,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -5713,132 +5662,132 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5848,26 +5797,32 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5882,17 +5837,8 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="Q16" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="263">
   <si>
     <t>Matemáticas</t>
   </si>
@@ -447,9 +447,6 @@
     <t>Diez preguntas acerca de las características básicas de los puelos precolombinos de América del Norte</t>
   </si>
   <si>
-    <t>Recurso M10A-03</t>
-  </si>
-  <si>
     <t>Civilizaciones precolombinas de Mesoamérica</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>Ubicación espacio temporal</t>
   </si>
   <si>
-    <t>Video sobre el  pueblo maya</t>
-  </si>
-  <si>
     <t xml:space="preserve">VIDEO </t>
   </si>
   <si>
@@ -561,9 +555,6 @@
     <t>Diez  preguntas sobre aspectos destacados de la civilización maya y azteca (Dos para BA)</t>
   </si>
   <si>
-    <t>Recurso M10A-04</t>
-  </si>
-  <si>
     <t>Culturas precolombinas de América del Sur</t>
   </si>
   <si>
@@ -633,9 +624,6 @@
     <t>Diez  preguntas sobre aspectos destacados de la civilización inca</t>
   </si>
   <si>
-    <t>Recurso M10A-05</t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
@@ -790,13 +778,41 @@
   </si>
   <si>
     <t>Interactivo sobre aspectos cotidianos de la civilización azteca</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>Los links de videos no están bien</t>
+  </si>
+  <si>
+    <t>El video en naranja debe desaparecer</t>
+  </si>
+  <si>
+    <t>El  pueblo maya</t>
+  </si>
+  <si>
+    <t>El pueblo inca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Machu Picchu, una ciudad fortaleza</t>
+  </si>
+  <si>
+    <t>Video sobre Machu Picchu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +929,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,6 +976,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1135,6 +1187,24 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,11 +1226,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3430,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,99 +3525,99 @@
     <col min="17" max="17" width="14.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="R1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="T1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="U1" s="54" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3622,7 +3692,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="35"/>
@@ -3655,7 +3725,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="35"/>
@@ -3688,7 +3758,7 @@
         <v>88</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="35"/>
@@ -3783,10 +3853,10 @@
         <v>107</v>
       </c>
       <c r="F8" s="30"/>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="49">
         <v>3</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -3962,17 +4032,17 @@
         <v>107</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="49">
         <v>6</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K11" s="31" t="s">
         <v>8</v>
@@ -3980,7 +4050,7 @@
       <c r="L11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="50" t="s">
         <v>110</v>
       </c>
       <c r="N11" s="9"/>
@@ -4080,7 +4150,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="46" t="s">
         <v>135</v>
       </c>
       <c r="H13" s="8">
@@ -4141,10 +4211,10 @@
         <v>107</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="49">
         <v>9</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -4179,7 +4249,7 @@
         <v>104</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>106</v>
@@ -4196,12 +4266,12 @@
         <v>87</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="16"/>
       <c r="G15" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="8">
         <v>10</v>
@@ -4210,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>8</v>
@@ -4218,10 +4288,10 @@
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>3</v>
@@ -4236,7 +4306,7 @@
         <v>94</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>96</v>
@@ -4253,16 +4323,16 @@
         <v>87</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>150</v>
-      </c>
       <c r="G16" s="36" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="H16" s="8">
         <v>11</v>
@@ -4271,24 +4341,24 @@
         <v>3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="32" t="s">
-        <v>154</v>
+      <c r="Q16" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -4306,13 +4376,13 @@
         <v>87</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="8"/>
@@ -4341,13 +4411,13 @@
         <v>87</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="8"/>
@@ -4376,13 +4446,13 @@
         <v>87</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="8"/>
@@ -4411,13 +4481,13 @@
         <v>87</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="9"/>
@@ -4446,16 +4516,16 @@
         <v>87</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H21" s="8">
         <v>12</v>
@@ -4464,7 +4534,7 @@
         <v>8</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K21" s="31" t="s">
         <v>8</v>
@@ -4473,11 +4543,11 @@
         <v>100</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>3</v>
@@ -4492,7 +4562,7 @@
         <v>104</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>106</v>
@@ -4509,16 +4579,16 @@
         <v>87</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H22" s="8">
         <v>13</v>
@@ -4527,24 +4597,24 @@
         <v>8</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -4562,16 +4632,16 @@
         <v>87</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H23" s="8">
         <v>14</v>
@@ -4580,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K23" s="31" t="s">
         <v>8</v>
@@ -4590,10 +4660,10 @@
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>3</v>
@@ -4608,7 +4678,7 @@
         <v>94</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>96</v>
@@ -4625,13 +4695,13 @@
         <v>87</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="8"/>
@@ -4660,13 +4730,13 @@
         <v>87</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G25" s="39"/>
       <c r="H25" s="8"/>
@@ -4695,13 +4765,13 @@
         <v>87</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="9"/>
@@ -4730,16 +4800,16 @@
         <v>87</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H27" s="8">
         <v>15</v>
@@ -4748,7 +4818,7 @@
         <v>8</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K27" s="31" t="s">
         <v>8</v>
@@ -4757,11 +4827,11 @@
         <v>100</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>8</v>
@@ -4776,7 +4846,7 @@
         <v>104</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>106</v>
@@ -4793,23 +4863,23 @@
         <v>87</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="49">
         <v>16</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K28" s="31" t="s">
         <v>8</v>
@@ -4817,12 +4887,12 @@
       <c r="L28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="50" t="s">
         <v>110</v>
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>3</v>
@@ -4837,7 +4907,7 @@
         <v>104</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>106</v>
@@ -4854,14 +4924,14 @@
         <v>87</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H29" s="8">
         <v>17</v>
@@ -4870,7 +4940,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K29" s="31" t="s">
         <v>8</v>
@@ -4879,11 +4949,11 @@
         <v>100</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>3</v>
@@ -4898,7 +4968,7 @@
         <v>104</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>106</v>
@@ -4915,14 +4985,14 @@
         <v>87</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="54" t="s">
-        <v>188</v>
+      <c r="G30" s="47" t="s">
+        <v>260</v>
       </c>
       <c r="H30" s="8">
         <v>18</v>
@@ -4931,24 +5001,24 @@
         <v>3</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K30" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q30" s="33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
@@ -4966,13 +5036,13 @@
         <v>87</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="8"/>
@@ -5001,13 +5071,13 @@
         <v>87</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G32" s="41"/>
       <c r="H32" s="31"/>
@@ -5036,13 +5106,13 @@
         <v>87</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="8"/>
@@ -5071,16 +5141,16 @@
         <v>87</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H34" s="8">
         <v>19</v>
@@ -5089,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>3</v>
@@ -5102,7 +5172,7 @@
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P34" s="8" t="s">
         <v>3</v>
@@ -5134,16 +5204,16 @@
         <v>87</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H35" s="8">
         <v>20</v>
@@ -5152,7 +5222,7 @@
         <v>8</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K35" s="31" t="s">
         <v>8</v>
@@ -5161,11 +5231,11 @@
         <v>100</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P35" s="8" t="s">
         <v>8</v>
@@ -5180,7 +5250,7 @@
         <v>104</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="U35" s="4" t="s">
         <v>106</v>
@@ -5197,38 +5267,42 @@
         <v>87</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="35"/>
+        <v>157</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>261</v>
+      </c>
       <c r="H36" s="8">
         <v>21</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="10"/>
+      <c r="J36" s="60" t="s">
+        <v>262</v>
+      </c>
       <c r="K36" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L36" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="M36" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="M36" s="50"/>
       <c r="N36" s="9"/>
       <c r="O36" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P36" s="8" t="s">
         <v>3</v>
       </c>
       <c r="Q36" s="33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
@@ -5246,36 +5320,36 @@
         <v>87</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>107</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="G37" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="49">
         <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="M37" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="50" t="s">
         <v>110</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>3</v>
@@ -5290,7 +5364,7 @@
         <v>104</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>106</v>
@@ -5307,12 +5381,12 @@
         <v>87</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="16"/>
       <c r="G38" s="35" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H38" s="8">
         <v>23</v>
@@ -5325,10 +5399,10 @@
         <v>8</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="10"/>
@@ -5345,7 +5419,7 @@
         <v>104</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>106</v>
@@ -5362,12 +5436,12 @@
         <v>87</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="16"/>
       <c r="G39" s="35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H39" s="8">
         <v>24</v>
@@ -5380,11 +5454,11 @@
         <v>8</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O39" s="10"/>
       <c r="P39" s="8" t="s">
@@ -5400,7 +5474,7 @@
         <v>94</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>96</v>
@@ -5417,12 +5491,12 @@
         <v>87</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="16"/>
       <c r="G40" s="35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H40" s="8">
         <v>25</v>
@@ -5435,7 +5509,7 @@
         <v>8</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="8"/>
@@ -5460,12 +5534,12 @@
         <v>87</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="16"/>
       <c r="G41" s="35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H41" s="8">
         <v>26</v>
@@ -5478,14 +5552,14 @@
         <v>8</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P41" s="8" t="s">
         <v>3</v>
@@ -5500,7 +5574,7 @@
         <v>104</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="U41" s="4" t="s">
         <v>106</v>
@@ -5520,7 +5594,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="16"/>
       <c r="G42" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H42" s="8">
         <v>27</v>
@@ -5534,11 +5608,11 @@
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P42" s="8" t="s">
         <v>8</v>
@@ -5553,7 +5627,7 @@
         <v>104</v>
       </c>
       <c r="T42" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>106</v>
@@ -5590,7 +5664,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="16"/>
       <c r="G44" s="37" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -5630,14 +5704,24 @@
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
     </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -5647,7 +5731,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -5662,132 +5746,132 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5797,22 +5881,22 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5838,7 +5922,10 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="Q16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -812,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,13 +910,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1066,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1182,21 +1175,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,13 +1192,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,15 +1218,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3500,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,94 +3517,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="M1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="54" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="53" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
     </row>
     <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3853,10 +3840,10 @@
         <v>107</v>
       </c>
       <c r="F8" s="30"/>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="47">
         <v>3</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -4032,10 +4019,10 @@
         <v>107</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="47">
         <v>6</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -4050,7 +4037,7 @@
       <c r="L11" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="50" t="s">
+      <c r="M11" s="48" t="s">
         <v>110</v>
       </c>
       <c r="N11" s="9"/>
@@ -4150,7 +4137,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>135</v>
       </c>
       <c r="H13" s="8">
@@ -4211,10 +4198,10 @@
         <v>107</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="47">
         <v>9</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -4357,7 +4344,7 @@
       <c r="P16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q16" s="51" t="s">
+      <c r="Q16" s="49" t="s">
         <v>152</v>
       </c>
       <c r="R16" s="14"/>
@@ -4869,10 +4856,10 @@
         <v>107</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="47">
         <v>16</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -4887,7 +4874,7 @@
       <c r="L28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="50" t="s">
+      <c r="M28" s="48" t="s">
         <v>110</v>
       </c>
       <c r="N28" s="9"/>
@@ -4991,7 +4978,7 @@
         <v>185</v>
       </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="45" t="s">
         <v>260</v>
       </c>
       <c r="H30" s="8">
@@ -5275,7 +5262,7 @@
       <c r="F36" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="50" t="s">
         <v>261</v>
       </c>
       <c r="H36" s="8">
@@ -5284,18 +5271,18 @@
       <c r="I36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J36" s="60" t="s">
+      <c r="J36" s="51" t="s">
         <v>262</v>
       </c>
       <c r="K36" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="44" t="s">
+      <c r="L36" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="M36" s="50"/>
+      <c r="M36" s="48"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="20" t="s">
         <v>151</v>
       </c>
       <c r="P36" s="8" t="s">
@@ -5326,10 +5313,10 @@
         <v>107</v>
       </c>
       <c r="F37" s="16"/>
-      <c r="G37" s="48" t="s">
+      <c r="G37" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="49">
+      <c r="H37" s="47">
         <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
@@ -5344,7 +5331,7 @@
       <c r="L37" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="48" t="s">
         <v>110</v>
       </c>
       <c r="N37" s="8"/>
@@ -5901,12 +5888,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5921,6 +5902,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q16" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -1198,16 +1198,13 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1218,6 +1215,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3487,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,94 +3517,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="53" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="54" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5888,6 +5888,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5902,12 +5908,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q16" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion05/CS_06_05_CO_Escaleta.xlsx
@@ -3487,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
